--- a/data/Gamma Round3 + post.xlsx
+++ b/data/Gamma Round3 + post.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$9</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -1379,39 +1379,216 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44480.68803240741</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44480.689884259256</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>44480.689896909724</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>R_3k5Li36CRAJVQv8</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>39050.0</v>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>Because I wanted to consent data.</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Y8" s="2" t="inlineStr">
+        <is>
+          <t>Neither agree nor disagree</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t>Neither agree nor disagree</t>
+        </is>
+      </c>
+      <c r="AA8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF8" s="2" t="inlineStr">
+        <is>
+          <t>Version 3</t>
+        </is>
+      </c>
+      <c r="AG8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because I had already done it two times before. </t>
+        </is>
+      </c>
+      <c r="AJ8" s="2" t="inlineStr">
+        <is>
+          <t>Yes, I would probably be willing to</t>
+        </is>
+      </c>
+      <c r="AK8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To help. </t>
+        </is>
+      </c>
+      <c r="AL8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM8" s="2" t="inlineStr">
+        <is>
+          <t>39050</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AM8"/>
+  <autoFilter ref="A2:AM9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C7" numberStoredAsText="true"/>
-    <ignoredError sqref="D1:D7" numberStoredAsText="true"/>
-    <ignoredError sqref="G1:G7" numberStoredAsText="true"/>
-    <ignoredError sqref="I1:I7" numberStoredAsText="true"/>
-    <ignoredError sqref="J1:J7" numberStoredAsText="true"/>
-    <ignoredError sqref="K1:K7" numberStoredAsText="true"/>
-    <ignoredError sqref="L1:L7" numberStoredAsText="true"/>
-    <ignoredError sqref="M1:M7" numberStoredAsText="true"/>
-    <ignoredError sqref="N1:N7" numberStoredAsText="true"/>
-    <ignoredError sqref="O1:O7" numberStoredAsText="true"/>
-    <ignoredError sqref="P1:P7" numberStoredAsText="true"/>
-    <ignoredError sqref="Q1:Q7" numberStoredAsText="true"/>
-    <ignoredError sqref="S1:S7" numberStoredAsText="true"/>
-    <ignoredError sqref="U1:U7" numberStoredAsText="true"/>
-    <ignoredError sqref="V1:V7" numberStoredAsText="true"/>
-    <ignoredError sqref="W1:W7" numberStoredAsText="true"/>
-    <ignoredError sqref="X1:X7" numberStoredAsText="true"/>
-    <ignoredError sqref="Y1:Y7" numberStoredAsText="true"/>
-    <ignoredError sqref="Z1:Z7" numberStoredAsText="true"/>
-    <ignoredError sqref="AA1:AA7" numberStoredAsText="true"/>
-    <ignoredError sqref="AB1:AB7" numberStoredAsText="true"/>
-    <ignoredError sqref="AF1:AF7" numberStoredAsText="true"/>
-    <ignoredError sqref="AG1:AG7" numberStoredAsText="true"/>
-    <ignoredError sqref="AH1:AH7" numberStoredAsText="true"/>
-    <ignoredError sqref="AI1:AI7" numberStoredAsText="true"/>
-    <ignoredError sqref="AJ1:AJ7" numberStoredAsText="true"/>
-    <ignoredError sqref="AK1:AK7" numberStoredAsText="true"/>
-    <ignoredError sqref="AL1:AL7" numberStoredAsText="true"/>
-    <ignoredError sqref="AM1:AM7" numberStoredAsText="true"/>
+    <ignoredError sqref="C1:C8" numberStoredAsText="true"/>
+    <ignoredError sqref="D1:D8" numberStoredAsText="true"/>
+    <ignoredError sqref="G1:G8" numberStoredAsText="true"/>
+    <ignoredError sqref="I1:I8" numberStoredAsText="true"/>
+    <ignoredError sqref="J1:J8" numberStoredAsText="true"/>
+    <ignoredError sqref="K1:K8" numberStoredAsText="true"/>
+    <ignoredError sqref="L1:L8" numberStoredAsText="true"/>
+    <ignoredError sqref="M1:M8" numberStoredAsText="true"/>
+    <ignoredError sqref="N1:N8" numberStoredAsText="true"/>
+    <ignoredError sqref="O1:O8" numberStoredAsText="true"/>
+    <ignoredError sqref="P1:P8" numberStoredAsText="true"/>
+    <ignoredError sqref="Q1:Q8" numberStoredAsText="true"/>
+    <ignoredError sqref="S1:S8" numberStoredAsText="true"/>
+    <ignoredError sqref="U1:U8" numberStoredAsText="true"/>
+    <ignoredError sqref="V1:V8" numberStoredAsText="true"/>
+    <ignoredError sqref="W1:W8" numberStoredAsText="true"/>
+    <ignoredError sqref="X1:X8" numberStoredAsText="true"/>
+    <ignoredError sqref="Y1:Y8" numberStoredAsText="true"/>
+    <ignoredError sqref="Z1:Z8" numberStoredAsText="true"/>
+    <ignoredError sqref="AA1:AA8" numberStoredAsText="true"/>
+    <ignoredError sqref="AB1:AB8" numberStoredAsText="true"/>
+    <ignoredError sqref="AF1:AF8" numberStoredAsText="true"/>
+    <ignoredError sqref="AG1:AG8" numberStoredAsText="true"/>
+    <ignoredError sqref="AH1:AH8" numberStoredAsText="true"/>
+    <ignoredError sqref="AI1:AI8" numberStoredAsText="true"/>
+    <ignoredError sqref="AJ1:AJ8" numberStoredAsText="true"/>
+    <ignoredError sqref="AK1:AK8" numberStoredAsText="true"/>
+    <ignoredError sqref="AL1:AL8" numberStoredAsText="true"/>
+    <ignoredError sqref="AM1:AM8" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
